--- a/GP1_Planlama.xlsx
+++ b/GP1_Planlama.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED5774B-7F89-42E0-89BD-43F786C5440A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13410"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -193,7 +194,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -454,20 +455,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Input" xfId="3" builtinId="20"/>
+    <cellStyle name="Giriş" xfId="3" builtinId="20"/>
+    <cellStyle name="İyi" xfId="1" builtinId="26"/>
+    <cellStyle name="Kötü" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -745,12 +746,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D3" sqref="D3"/>
+      <selection pane="topRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,46 +762,46 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14" t="s">
+      <c r="K1" s="15"/>
+      <c r="L1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14" t="s">
+      <c r="M1" s="15"/>
+      <c r="N1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14" t="s">
+      <c r="O1" s="15"/>
+      <c r="P1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14" t="s">
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14" t="s">
+      <c r="S1" s="15"/>
+      <c r="T1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="15"/>
+      <c r="U1" s="16"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
@@ -874,10 +875,10 @@
       <c r="D3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="13" t="s">
         <v>42</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -932,7 +933,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -997,7 +998,7 @@
       <c r="C5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -1062,7 +1063,7 @@
       <c r="C6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -1127,7 +1128,7 @@
       <c r="C7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -1192,7 +1193,7 @@
       <c r="C8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -1251,13 +1252,13 @@
       <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="14" t="s">
         <v>41</v>
       </c>
       <c r="E9" s="10" t="s">

--- a/GP1_Planlama.xlsx
+++ b/GP1_Planlama.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED5774B-7F89-42E0-89BD-43F786C5440A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -194,7 +193,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -236,7 +235,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,6 +260,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,7 +435,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
@@ -464,11 +469,21 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Giriş" xfId="3" builtinId="20"/>
-    <cellStyle name="İyi" xfId="1" builtinId="26"/>
-    <cellStyle name="Kötü" xfId="2" builtinId="27"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -746,12 +761,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J6" sqref="J6"/>
+      <selection pane="topRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,13 +890,13 @@
       <c r="D3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="19" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="18" t="s">
         <v>39</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -936,13 +951,13 @@
       <c r="D4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="18" t="s">
         <v>44</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -1001,13 +1016,13 @@
       <c r="D5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="18" t="s">
         <v>44</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -1066,13 +1081,13 @@
       <c r="D6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="18" t="s">
         <v>44</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -1131,13 +1146,13 @@
       <c r="D7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="18" t="s">
         <v>44</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -1196,7 +1211,7 @@
       <c r="D8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="18" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -1261,7 +1276,7 @@
       <c r="D9" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="20" t="s">
         <v>40</v>
       </c>
       <c r="F9" s="10" t="s">

--- a/GP1_Planlama.xlsx
+++ b/GP1_Planlama.xlsx
@@ -235,7 +235,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,12 +260,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,7 +429,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
@@ -469,14 +463,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -766,7 +753,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I13" sqref="I13"/>
+      <selection pane="topRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,13 +877,13 @@
       <c r="D3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="17" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="13" t="s">
         <v>39</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -951,13 +938,13 @@
       <c r="D4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="13" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="13" t="s">
         <v>44</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -1016,13 +1003,13 @@
       <c r="D5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="13" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="13" t="s">
         <v>44</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -1081,13 +1068,13 @@
       <c r="D6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="13" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="13" t="s">
         <v>44</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -1146,13 +1133,13 @@
       <c r="D7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="13" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="13" t="s">
         <v>44</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -1211,7 +1198,7 @@
       <c r="D8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="13" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -1276,7 +1263,7 @@
       <c r="D9" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F9" s="10" t="s">
